--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CD/20/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CD/20/seed2/result_data_KNN.xlsx
@@ -471,7 +471,7 @@
         <v>-10.94</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.004</v>
+        <v>-7.246</v>
       </c>
       <c r="E2" t="n">
         <v>17.25</v>
@@ -485,7 +485,7 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.412</v>
+        <v>-13.09</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.264</v>
+        <v>-12.509</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -706,7 +706,7 @@
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.422</v>
+        <v>-12.878</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -743,7 +743,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-7.922</v>
+        <v>-8.230999999999998</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -791,7 +791,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.168</v>
+        <v>-12.394</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -825,7 +825,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.016</v>
+        <v>-12.446</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -845,7 +845,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.401999999999999</v>
+        <v>-7.725999999999999</v>
       </c>
       <c r="E24" t="n">
         <v>16.37</v>
@@ -859,10 +859,10 @@
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-12.794</v>
+        <v>-12.329</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.894</v>
+        <v>-8.09</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.556</v>
+        <v>-12.947</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.372</v>
+        <v>-8.35</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-12.92</v>
+        <v>-12.061</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.974000000000001</v>
+        <v>-7.635</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.751999999999999</v>
+        <v>-8.251999999999999</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -1100,7 +1100,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.476000000000001</v>
+        <v>-7.710000000000001</v>
       </c>
       <c r="E39" t="n">
         <v>16.91</v>
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.478</v>
+        <v>-12.527</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1151,7 +1151,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.776</v>
+        <v>-8.193000000000001</v>
       </c>
       <c r="E42" t="n">
         <v>16.31</v>
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.034000000000001</v>
+        <v>-7.100999999999999</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.488</v>
+        <v>-8.373999999999999</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.380000000000001</v>
+        <v>-7.359</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1335,7 +1335,7 @@
         <v>5.82</v>
       </c>
       <c r="C53" t="n">
-        <v>-10.472</v>
+        <v>-11.04</v>
       </c>
       <c r="D53" t="n">
         <v>-7.23</v>
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.242000000000001</v>
+        <v>-8.145</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1389,7 +1389,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.063999999999998</v>
+        <v>-8.272</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1403,10 +1403,10 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.31</v>
+        <v>-13.565</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.824000000000002</v>
+        <v>-8.559000000000001</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1437,7 +1437,7 @@
         <v>4.58</v>
       </c>
       <c r="C59" t="n">
-        <v>-12.184</v>
+        <v>-13.077</v>
       </c>
       <c r="D59" t="n">
         <v>-9.48</v>
@@ -1457,7 +1457,7 @@
         <v>-13.33</v>
       </c>
       <c r="D60" t="n">
-        <v>-8.351999999999999</v>
+        <v>-8.391999999999999</v>
       </c>
       <c r="E60" t="n">
         <v>16.4</v>
@@ -1539,7 +1539,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-12.166</v>
+        <v>-12.273</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1607,7 +1607,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-10.956</v>
+        <v>-10.676</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.858000000000001</v>
+        <v>-8.004000000000001</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1695,7 +1695,7 @@
         <v>-12.97</v>
       </c>
       <c r="D74" t="n">
-        <v>-8.334</v>
+        <v>-7.952999999999999</v>
       </c>
       <c r="E74" t="n">
         <v>16.1</v>
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-11.888</v>
+        <v>-12.1</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1845,7 +1845,7 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.08</v>
+        <v>-13.392</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1950,7 +1950,7 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-6.372</v>
+        <v>-6.858</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1967,7 +1967,7 @@
         <v>-12.06</v>
       </c>
       <c r="D90" t="n">
-        <v>-7.308</v>
+        <v>-7.629</v>
       </c>
       <c r="E90" t="n">
         <v>16.68</v>
@@ -1981,7 +1981,7 @@
         <v>4.28</v>
       </c>
       <c r="C91" t="n">
-        <v>-10.456</v>
+        <v>-10.571</v>
       </c>
       <c r="D91" t="n">
         <v>-5.79</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.563999999999998</v>
+        <v>-6.592999999999999</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2015,7 +2015,7 @@
         <v>7.55</v>
       </c>
       <c r="C93" t="n">
-        <v>-12.32</v>
+        <v>-11.786</v>
       </c>
       <c r="D93" t="n">
         <v>-6.1</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.84</v>
+        <v>-12.965</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
